--- a/week 11/insomnia_data_dictionary copy.xlsx
+++ b/week 11/insomnia_data_dictionary copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutongwu/Documents/NM2207/tutorial /week 10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutongwu/Documents/NM2207/tutorial /week 11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5F11B625-DCAA-BE4B-A434-CCC00D66B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9276E92-B3FD-B640-B654-BE3D6E8B1555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="insomnia_data_dictionary copy" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="194">
   <si>
     <t>Columns</t>
   </si>
@@ -587,12 +587,27 @@
   </si>
   <si>
     <t>coping skills</t>
+  </si>
+  <si>
+    <t>predispose to insomnia</t>
+  </si>
+  <si>
+    <t>intrusiveness of cognition</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>sleep hygiene</t>
+  </si>
+  <si>
+    <t>stress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -729,7 +744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,6 +927,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1085,6 +1106,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1439,11 +1462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="119" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="119" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1587,7 +1610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1595,7 +1618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>186</v>
       </c>
@@ -1606,117 +1629,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
         <v>53</v>
@@ -1725,7 +1763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="1" t="s">
         <v>55</v>
@@ -1733,8 +1771,11 @@
       <c r="C32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="1" t="s">
         <v>57</v>
@@ -1742,8 +1783,11 @@
       <c r="C33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>59</v>
       </c>
@@ -1751,7 +1795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -1759,7 +1803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>63</v>
       </c>
@@ -1767,7 +1811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -1775,7 +1819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -1783,7 +1827,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>69</v>
       </c>
@@ -1791,54 +1835,54 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>81</v>
       </c>
@@ -1846,7 +1890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -1854,7 +1898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>85</v>
       </c>
@@ -1862,7 +1906,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>87</v>
       </c>
@@ -1870,7 +1914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>89</v>
       </c>
@@ -1878,7 +1922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>91</v>
       </c>
@@ -1886,7 +1930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>93</v>
       </c>
@@ -1894,7 +1938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>95</v>
       </c>
@@ -1902,7 +1946,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>97</v>
       </c>
@@ -1910,7 +1954,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>99</v>
       </c>
@@ -1918,7 +1962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>101</v>
       </c>
@@ -1926,7 +1970,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>103</v>
       </c>
@@ -1934,7 +1978,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>105</v>
       </c>
@@ -1942,7 +1986,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>107</v>
       </c>
@@ -1950,7 +1994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>109</v>
       </c>
@@ -1958,18 +2002,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C60" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
         <v>113</v>
@@ -1977,8 +2021,11 @@
       <c r="C61" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="1" t="s">
         <v>115</v>
@@ -1986,8 +2033,9 @@
       <c r="C62" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="1" t="s">
         <v>117</v>
@@ -1995,8 +2043,9 @@
       <c r="C63" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="1" t="s">
         <v>119</v>
@@ -2004,8 +2053,9 @@
       <c r="C64" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="1" t="s">
         <v>121</v>
@@ -2013,8 +2063,9 @@
       <c r="C65" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="1" t="s">
         <v>123</v>
@@ -2022,8 +2073,9 @@
       <c r="C66" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="1" t="s">
         <v>125</v>
@@ -2031,8 +2083,9 @@
       <c r="C67" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="1" t="s">
         <v>127</v>
@@ -2040,8 +2093,9 @@
       <c r="C68" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="1" t="s">
         <v>129</v>
@@ -2049,8 +2103,9 @@
       <c r="C69" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="1" t="s">
         <v>131</v>
@@ -2058,8 +2113,9 @@
       <c r="C70" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>133</v>
       </c>
@@ -2067,7 +2123,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>135</v>
       </c>
@@ -2075,7 +2131,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>137</v>
       </c>
@@ -2083,7 +2139,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>188</v>
       </c>
@@ -2094,7 +2150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="1" t="s">
         <v>141</v>
@@ -2103,7 +2159,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="1" t="s">
         <v>143</v>
@@ -2112,7 +2168,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="1" t="s">
         <v>145</v>
@@ -2121,7 +2177,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="1" t="s">
         <v>147</v>
@@ -2130,7 +2186,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="1" t="s">
         <v>149</v>
@@ -2139,7 +2195,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="1" t="s">
         <v>151</v>
@@ -2286,13 +2342,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A74:A89"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D61:D70"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A33"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="A60:A70"/>
-    <mergeCell ref="A74:A89"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
